--- a/Older SQL/wgidataset.xlsx
+++ b/Older SQL/wgidataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akoyamparamb\Documents\GitHub\geopolrisk\lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\geopolrisk\Older SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED96203-859A-46A4-9AB2-E31B877AA001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B703DFEB-D7AC-4D3A-A16B-03E990F3B750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="-240" windowWidth="20730" windowHeight="11040" tabRatio="692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" tabRatio="692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVNOR" sheetId="11" r:id="rId1"/>
@@ -1772,15 +1772,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E76664C-F6CB-4746-8435-4E6735A90508}">
-  <dimension ref="A1:HI23"/>
+  <dimension ref="A1:HF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:217" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:214" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>429</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="2" spans="1:217" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:214" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>0.59289655089378357</v>
       </c>
     </row>
-    <row r="3" spans="1:217" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:214" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0.64792494773864751</v>
       </c>
     </row>
-    <row r="4" spans="1:217" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:214" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>0.76458125114440922</v>
       </c>
     </row>
-    <row r="5" spans="1:217" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:214" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>0.80439567565917969</v>
       </c>
     </row>
-    <row r="6" spans="1:217" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:214" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>0.71766853332519531</v>
       </c>
     </row>
-    <row r="7" spans="1:217" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:214" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>0.74149999618530271</v>
       </c>
     </row>
-    <row r="8" spans="1:217" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:214" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6931,12 +6931,8 @@
       <c r="HF8">
         <v>0.75458281040191655</v>
       </c>
-      <c r="HI8">
-        <f>MIN(C2:HF23)</f>
-        <v>7.3200840000000001E-3</v>
-      </c>
     </row>
-    <row r="9" spans="1:217" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:214" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7579,12 +7575,8 @@
       <c r="HF9">
         <v>0.68659212589263918</v>
       </c>
-      <c r="HI9">
-        <f>MAX(C2:HF23)</f>
-        <v>1</v>
-      </c>
     </row>
-    <row r="10" spans="1:217" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:214" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8228,7 +8220,7 @@
         <v>0.72179367542266848</v>
       </c>
     </row>
-    <row r="11" spans="1:217" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:214" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8872,7 +8864,7 @@
         <v>0.74278900623321531</v>
       </c>
     </row>
-    <row r="12" spans="1:217" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:214" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9516,7 +9508,7 @@
         <v>0.73342998027801509</v>
       </c>
     </row>
-    <row r="13" spans="1:217" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:214" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10160,7 +10152,7 @@
         <v>0.72080278396606445</v>
       </c>
     </row>
-    <row r="14" spans="1:217" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:214" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10804,7 +10796,7 @@
         <v>0.68906570672988887</v>
       </c>
     </row>
-    <row r="15" spans="1:217" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:214" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11448,7 +11440,7 @@
         <v>0.65573240518569942</v>
       </c>
     </row>
-    <row r="16" spans="1:217" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:214" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -33048,21 +33040,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000D135C35F46F242ABD78D63C2151323" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9e44134ac81e3447f8f86746ffc1a4b4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0c867391-8214-4b58-86b3-de07547409f9" xmlns:ns4="fddef6a8-5936-4909-96e0-2ad7a6b1720b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1dba75b2eda569bc260c2cc7101f931" ns3:_="" ns4:_="">
     <xsd:import namespace="0c867391-8214-4b58-86b3-de07547409f9"/>
@@ -33279,10 +33256,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{013A1789-55B8-451B-9E22-6F7098D3DB03}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C81B760C-EDA0-4F00-8064-292A8F838199}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0c867391-8214-4b58-86b3-de07547409f9"/>
+    <ds:schemaRef ds:uri="fddef6a8-5936-4909-96e0-2ad7a6b1720b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -33305,20 +33308,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C81B760C-EDA0-4F00-8064-292A8F838199}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{013A1789-55B8-451B-9E22-6F7098D3DB03}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0c867391-8214-4b58-86b3-de07547409f9"/>
-    <ds:schemaRef ds:uri="fddef6a8-5936-4909-96e0-2ad7a6b1720b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>